--- a/Sample Job Applications/EmailApplications.xlsx
+++ b/Sample Job Applications/EmailApplications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywkxw\Desktop\Wai Kit\Temasek Polytechnic\Y3S2\Core Subjects\Intelligent Automation\Project\Applicant Screener\Sample Job Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F0E7FD-8226-4C2C-BA2E-54A6E9D95AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800AB60C-FB9E-4C4F-BF59-1A9E53170AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2475" windowWidth="29040" windowHeight="15720" xr2:uid="{788DB0E6-0E3D-4B06-8B3A-352A1FB12D53}"/>
   </bookViews>
@@ -580,9 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16479E6F-B6B7-4559-8DC8-1AB03E561872}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
